--- a/data/trans_dic/P75-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P75-Provincia-trans_dic.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,86; 31,59</t>
+          <t>20,82; 31,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,63; 29,81</t>
+          <t>19,96; 30,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,71; 29,51</t>
+          <t>21,48; 29,16</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,06</t>
+          <t>22,89; 31,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,03; 33,07</t>
+          <t>24,7; 33,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,08</t>
+          <t>0,63; 2,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,08; 31,38</t>
+          <t>25,05; 30,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,7</t>
+          <t>0,45; 1,79</t>
         </is>
       </c>
     </row>
@@ -804,27 +804,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,47</t>
+          <t>0,27; 2,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,93</t>
+          <t>0,31; 2,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,07</t>
+          <t>0,44; 2,11</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 21,18</t>
+          <t>14,83; 21,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 17,25</t>
+          <t>9,68; 16,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 21,66</t>
+          <t>15,41; 21,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 16,76</t>
+          <t>10,01; 16,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 20,25</t>
+          <t>15,87; 20,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,61</t>
+          <t>10,72; 15,61</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,29; 88,04</t>
+          <t>77,48; 87,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,05; 41,31</t>
+          <t>28,5; 41,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,82; 90,7</t>
+          <t>82,13; 91,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,7; 45,21</t>
+          <t>32,17; 44,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,58; 88,16</t>
+          <t>81,32; 88,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,31; 41,38</t>
+          <t>32,62; 41,65</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,15</t>
+          <t>1,52; 6,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,17 +1054,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,52</t>
+          <t>3,32; 8,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,76</t>
+          <t>2,88; 6,56</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,98</t>
+          <t>6,73; 11,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,41</t>
+          <t>2,19; 5,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,48</t>
+          <t>6,17; 10,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,46</t>
+          <t>3,81; 7,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,5</t>
+          <t>7,3; 10,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,92</t>
+          <t>3,35; 5,93</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,22; 56,15</t>
+          <t>48,98; 56,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,99; 34,61</t>
+          <t>27,95; 34,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,57; 55,58</t>
+          <t>48,83; 56,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,46</t>
+          <t>27,86; 34,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,88; 54,96</t>
+          <t>49,72; 55,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,81; 33,54</t>
+          <t>28,72; 33,37</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,73; 27,97</t>
+          <t>24,79; 27,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,95; 15,32</t>
+          <t>12,97; 15,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25,53; 28,54</t>
+          <t>25,38; 28,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,68; 16,14</t>
+          <t>13,63; 16,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,53; 27,79</t>
+          <t>25,58; 27,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,75; 15,4</t>
+          <t>13,77; 15,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P75-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P75-Provincia-trans_dic.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 31,72</t>
+          <t>21,5; 32,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 30,21</t>
+          <t>19,92; 30,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 29,16</t>
+          <t>21,99; 29,21</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,89; 31,7</t>
+          <t>22,44; 31,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,7; 33,03</t>
+          <t>24,64; 33,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,86</t>
+          <t>0,6; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 30,85</t>
+          <t>25,02; 30,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,79</t>
+          <t>0,52; 1,9</t>
         </is>
       </c>
     </row>
@@ -804,27 +804,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,36</t>
+          <t>0,27; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,9</t>
+          <t>0,29; 2,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,11</t>
+          <t>0,43; 1,97</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,83; 21,22</t>
+          <t>14,94; 21,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 16,52</t>
+          <t>9,92; 17,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,65</t>
+          <t>15,34; 22,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,88</t>
+          <t>9,75; 16,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,42</t>
+          <t>16,03; 20,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,61</t>
+          <t>10,79; 15,48</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,48; 87,5</t>
+          <t>77,12; 88,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,5; 41,64</t>
+          <t>28,9; 41,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,13; 91,16</t>
+          <t>81,63; 91,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,17; 44,91</t>
+          <t>33,09; 45,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,32; 88,03</t>
+          <t>81,31; 88,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,62; 41,65</t>
+          <t>32,14; 41,88</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,38</t>
+          <t>1,42; 6,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,84</t>
+          <t>3,21; 9,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,56</t>
+          <t>3,03; 6,89</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,83</t>
+          <t>7,05; 12,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,38</t>
+          <t>2,24; 5,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,57</t>
+          <t>6,07; 10,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,45</t>
+          <t>3,94; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,52</t>
+          <t>7,04; 10,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,93</t>
+          <t>3,37; 5,88</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>48,98; 56,69</t>
+          <t>48,88; 56,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,95; 34,68</t>
+          <t>28,24; 34,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,83; 56,24</t>
+          <t>48,82; 56,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,86; 34,63</t>
+          <t>27,93; 34,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,72; 55,04</t>
+          <t>49,88; 55,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,72; 33,37</t>
+          <t>28,99; 33,6</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,79; 27,85</t>
+          <t>24,75; 28,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,97; 15,4</t>
+          <t>12,98; 15,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,63; 16,15</t>
+          <t>13,66; 16,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,58; 27,78</t>
+          <t>25,49; 27,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,77; 15,42</t>
+          <t>13,64; 15,43</t>
         </is>
       </c>
     </row>
